--- a/data/trans_dic/P25A$molestias-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 19,65</t>
+          <t>8,04; 20,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,76</t>
+          <t>3,83; 11,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 22,39</t>
+          <t>9,14; 21,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,06</t>
+          <t>0,0; 16,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,33</t>
+          <t>0,0; 9,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 26,23</t>
+          <t>6,82; 26,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 16,45</t>
+          <t>6,79; 15,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,1</t>
+          <t>3,54; 9,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 20,53</t>
+          <t>9,77; 20,04</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 23,81</t>
+          <t>12,05; 23,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,74</t>
+          <t>8,6; 17,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 20,51</t>
+          <t>9,45; 20,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 20,09</t>
+          <t>5,45; 20,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 17,7</t>
+          <t>4,5; 18,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,09; 27,95</t>
+          <t>10,52; 26,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,21</t>
+          <t>11,62; 21,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 16,13</t>
+          <t>8,64; 15,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 20,08</t>
+          <t>10,84; 20,03</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 26,35</t>
+          <t>13,01; 26,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,7</t>
+          <t>6,69; 18,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 31,12</t>
+          <t>16,03; 31,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 27,22</t>
+          <t>5,1; 29,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,08</t>
+          <t>1,02; 10,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,42</t>
+          <t>1,44; 12,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 24,4</t>
+          <t>12,39; 24,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,5</t>
+          <t>5,42; 12,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 22,57</t>
+          <t>12,09; 22,54</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 32,06</t>
+          <t>19,74; 31,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 15,61</t>
+          <t>6,78; 16,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 18,39</t>
+          <t>7,93; 18,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 31,48</t>
+          <t>14,34; 31,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 23,76</t>
+          <t>9,23; 23,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 23,52</t>
+          <t>9,38; 22,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 29,23</t>
+          <t>19,29; 28,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 16,23</t>
+          <t>8,84; 16,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 18,01</t>
+          <t>10,25; 18,46</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,28</t>
+          <t>15,74; 21,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,92</t>
+          <t>8,52; 13,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,05</t>
+          <t>13,12; 19,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,34</t>
+          <t>10,4; 19,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,64</t>
+          <t>6,35; 12,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,52</t>
+          <t>10,28; 17,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,33</t>
+          <t>15,25; 20,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,98</t>
+          <t>8,33; 11,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,48</t>
+          <t>12,69; 17,37</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, las molestias por causa del tabaco</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16597</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13615</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17056</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8116</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18469</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15944</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25172</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10407; 26074</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7233; 22030</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10801; 25944</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6607</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7052</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3670; 14482</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11600; 27229</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9235; 25301</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16808; 34472</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32459</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31904</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24889</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8447</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9626</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14866</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40906</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41530</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39755</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22509; 44393</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21386; 43795</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16747; 35625</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4193; 15761</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4427; 17733</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9085; 23171</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30646; 56210</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29978; 54773</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28575; 52799</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25340</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18886</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30981</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5826</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4792</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31166</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23677</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35396</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17473; 35869</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11536; 31762</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21400; 41869</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2024; 11508</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1056; 11335</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1074; 9611</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21561; 42097</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14925; 35718</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25151; 46904</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43404</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21870</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22126</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20254</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17373</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18335</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63658</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39243</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40461</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>34343; 55265</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13996; 33040</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13996; 32056</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13309; 29668</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10428; 27043</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11366; 27293</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51472; 77330</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28235; 53066</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30512; 54923</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117800</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86275</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>95051</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36399</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34120</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45732</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>154199</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>120395</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>140783</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>98278; 136992</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>69519; 107720</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79415; 116761</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26066; 48311</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24537; 49587</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34529; 59203</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>133501; 178395</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100155; 143504</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>119428; 163504</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>